--- a/templates/IssueBluePrintRolloutWIL.xlsx
+++ b/templates/IssueBluePrintRolloutWIL.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hypatos.sharepoint.com/sites/Projects/Freigegebene Dokumente/Wilhelmsen/02 PM/Rollout Jira Blueprint/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E427A3B-D65A-4617-AF27-E61DBE2E0613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB71B3-1233-9F43-8E93-C1A778BE6E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="1460" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WilhIssueBluePrintRollout" sheetId="16" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WilhIssueBluePrintRollout!$A$1:$G$114</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="134">
   <si>
     <t>Summary</t>
   </si>
@@ -62,92 +63,41 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Roll-out Wilhelmsen</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
-    <t>0. Project Management</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
-    <t>0_1 - Update_all_related_dates_in_this_project</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
-    <t>0_2 - Update_roll-out_plan</t>
-  </si>
-  <si>
     <t>File : https://wilhelmsen.sharepoint.com/:f:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/PMO/Rollout%20Plan?csf=1&amp;web=1&amp;e=eIf44E</t>
   </si>
   <si>
-    <t>0_3 - Internal_meetings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task to log general internal meetings </t>
   </si>
   <si>
-    <t>1. Process Discovery</t>
-  </si>
-  <si>
-    <t>1_1 - Data_Acquisition</t>
-  </si>
-  <si>
-    <t>1_2 - Requirement_Gathering</t>
-  </si>
-  <si>
-    <t>Training &amp; Posting Data Request</t>
-  </si>
-  <si>
     <t>Sub-task</t>
   </si>
   <si>
-    <t>Posting Data Analysis</t>
-  </si>
-  <si>
     <t>Analyze posting data and determine top suppliers (&gt;90% coverage)</t>
   </si>
   <si>
-    <t>Training Data Assessment</t>
-  </si>
-  <si>
     <t>Check if all top suppliers has sample documents with specified naming convention</t>
   </si>
   <si>
-    <t>Request additional documents if required</t>
-  </si>
-  <si>
     <t>Request if any top supplier document is missing</t>
   </si>
   <si>
-    <t>Training Data/Document Set Preparation</t>
-  </si>
-  <si>
     <t>Prepare training, annotation documents</t>
   </si>
   <si>
-    <t>Match training documents with posting data</t>
-  </si>
-  <si>
     <t>Match selected documents with posting data</t>
-  </si>
-  <si>
-    <t>2_1 - Capturing_Model_Training,2_2 - Enrichment_Model_Training</t>
-  </si>
-  <si>
-    <t>Provide Digitalization Details form to Local Finance Team and ask examples for Edge cases</t>
   </si>
   <si>
     <t>EXAMPLE DOCUMENT
 https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/General/2.%20-%20Workshops/Assessment%20Workshop/Digitalization%20details%20for%20Hypatos_Country.xlsx?d=w1f4142a7ac7a4094a18dd8c9455cf25d&amp;csf=1&amp;web=1&amp;e=DJWR4y</t>
-  </si>
-  <si>
-    <t>Provide Assessment Gathering  and Training  Data  Folders</t>
   </si>
   <si>
     <t xml:space="preserve">Assessment Folders : https://wilhelmsen.sharepoint.com/:f:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/General/2.%20-%20Workshops/Assessment%20Workshop
@@ -155,302 +105,353 @@
 </t>
   </si>
   <si>
-    <t>[ML] Demo Project Creation for Requirements Gathering Meeting</t>
-  </si>
-  <si>
     <t>Take the example from [ML] Project - [OC Entities][Phase 3] Oman</t>
   </si>
   <si>
-    <t>Requirement Gathering Meeting</t>
-  </si>
-  <si>
-    <t>Request examples for Edge cases</t>
-  </si>
-  <si>
-    <t>Complete full set-up of training data for all of the top suppliers with Edge cases shared during requirements session</t>
-  </si>
-  <si>
-    <t>Update WHL Requirement List</t>
-  </si>
-  <si>
     <t>https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Solution%20Design/Datapoint_Requirements/20230803%20WHL%20Requirement%20List.xlsx?d=wa1d0a15e28594d848e8def48ff3796e2&amp;csf=1&amp;web=1&amp;e=hxnCwT</t>
   </si>
   <si>
-    <t>Requirement Gathering Finalization</t>
-  </si>
-  <si>
-    <t>2. Model Training</t>
-  </si>
-  <si>
-    <t>2_1 - Capturing_Model_Training</t>
-  </si>
-  <si>
-    <t>2_3 - Model_Fine_Tuning</t>
-  </si>
-  <si>
-    <t>Create baseline (groundtruth) project to annotate [ML]</t>
-  </si>
-  <si>
     <t>Take the example from [ML] Project - NZ_Annotation</t>
   </si>
   <si>
-    <t>Upload documents selected for annotation to groundtruth project (Top suppliers and Edge cases)</t>
-  </si>
-  <si>
-    <t>Create a task for annotation (add details per requirements)</t>
-  </si>
-  <si>
-    <t>Validate annotation results with posting data</t>
-  </si>
-  <si>
-    <t>Improve annotation quality based on validation with posting data</t>
-  </si>
-  <si>
-    <t>Create Training  Project [ML]</t>
-  </si>
-  <si>
     <t>Take the example from[ML] Project - [Training][PROD][NZ]</t>
   </si>
   <si>
-    <t>Upload selected training documents from baseline project to Training Project [ML]</t>
-  </si>
-  <si>
-    <t>Create  QA Project [ML]</t>
-  </si>
-  <si>
     <t>Take the example from [ML] Project -  [QA] NZ</t>
   </si>
   <si>
-    <t>Configure QA project with Composite Enrichment Index</t>
-  </si>
-  <si>
-    <t>Create LLM Prompting Service [ML]</t>
-  </si>
-  <si>
-    <t>Upload baseline (groundtruth) documents to QA Project [ML]</t>
-  </si>
-  <si>
-    <t>Create Error Analysis Dashboard</t>
-  </si>
-  <si>
-    <t>Analyze QA results and accuracy</t>
-  </si>
-  <si>
-    <t>2_2 - Enrichment_Model_Training</t>
-  </si>
-  <si>
-    <t>Create IMP training project [TEST]</t>
-  </si>
-  <si>
-    <t>Contact with IM to enable IMP pipeline</t>
-  </si>
-  <si>
-    <t>Upload documents to IMP training project</t>
-  </si>
-  <si>
-    <t>Train suppliers using documents uploaded to IMP project</t>
-  </si>
-  <si>
-    <t>3_1 - Create_Projects_[TEST]</t>
-  </si>
-  <si>
-    <t>Improve/Optimize  LLM Prompting Service prompt with Error Analysis results</t>
-  </si>
-  <si>
-    <t>Add additional suppliers to IMP project if required</t>
-  </si>
-  <si>
-    <t>3.Studio Configuration</t>
-  </si>
-  <si>
-    <t>3_2 - Configure_Projects_[TEST]</t>
-  </si>
-  <si>
-    <t>Configure project schema with agreed upon requirements lists points</t>
-  </si>
-  <si>
-    <t>Add/Change accounting supplier/customer  party</t>
-  </si>
-  <si>
-    <t>Add/Change  company name validation</t>
-  </si>
-  <si>
-    <t>Add/check vat id validation</t>
-  </si>
-  <si>
-    <t>Check/change duplicate source data point</t>
-  </si>
-  <si>
-    <t>(Optional) Add translation data points if required</t>
-  </si>
-  <si>
-    <t>4_1 - Testing_Set-up</t>
-  </si>
-  <si>
-    <t>Create a COE ticket to configure Rerouting rules</t>
-  </si>
-  <si>
     <t>Example task : https://hypatos.atlassian.net/browse/WHL-825</t>
   </si>
   <si>
-    <t>Contact IM for composite enrichment set-up configuration</t>
-  </si>
-  <si>
-    <t>Contact IM to create and configure LLM prompting service</t>
-  </si>
-  <si>
-    <t>Contact IM to enable newly created [TEST] outbound projects for duplicate check pipeline (Connect projects to IMP pipeline)</t>
-  </si>
-  <si>
-    <t>Contact IM to add outbound projects to XML UBL 2.1 endpoint [TEST]</t>
-  </si>
-  <si>
-    <t>Contact IM to enable translation for outbound projects</t>
-  </si>
-  <si>
-    <t>4.  Testing</t>
-  </si>
-  <si>
-    <t>4_2 - Functional_Testing_by_HY</t>
-  </si>
-  <si>
-    <t>Copy and update Test Workbook for new phase if needed</t>
-  </si>
-  <si>
     <t>Example Workbook: https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Testing/20240219_WILH_TestWorkbook.xlsx?d=w69cb18348f0b4ca7b8673d2b6069bc2d&amp;csf=1&amp;web=1&amp;e=XKhJvy</t>
   </si>
   <si>
-    <t>4_3 - Testing_by_Wilhelmsen</t>
-  </si>
-  <si>
-    <t>Compare project set-up with requirements list for specific country</t>
-  </si>
-  <si>
     <t>Requirements Sheet: https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Solution%20Design/Datapoint_Requirements/20230803%20WHL%20Requirement%20List.xlsx?d=wa1d0a15e28594d848e8def48ff3796e2&amp;csf=1&amp;web=1&amp;e=hxnCwT</t>
   </si>
   <si>
-    <t>Upload documents to Gateway project and test routing</t>
-  </si>
-  <si>
-    <t>Test advanced duplicate testing</t>
-  </si>
-  <si>
-    <t>Test if enrichment is working properly with company code filter</t>
-  </si>
-  <si>
-    <t>Test if XML endpoint if available for outbound projects (Postman)</t>
-  </si>
-  <si>
-    <t>[Optional] Test translation feature</t>
-  </si>
-  <si>
-    <t>5_1 - Create_Projects_[PROD]</t>
-  </si>
-  <si>
-    <t>Add projects to Requirements List</t>
-  </si>
-  <si>
-    <t>Share Test Workbook</t>
-  </si>
-  <si>
-    <t>Wilhelmsen to configure integration &amp; perform System Integration Testing (SIT)</t>
-  </si>
-  <si>
-    <t>Wilhelmsen to perform Functional Testing</t>
-  </si>
-  <si>
-    <t>Wilhelmsen to perform User Acceptance Testing (UAT)</t>
-  </si>
-  <si>
-    <t>Testing Support Tasks (Issue Resolution)</t>
-  </si>
-  <si>
-    <t>Analysis &amp; Finalization of Tests</t>
-  </si>
-  <si>
-    <t>5. Deployment to Production</t>
-  </si>
-  <si>
-    <t>5_2 - Configure_Projects_[PROD]</t>
-  </si>
-  <si>
-    <t>Check accounting supplier/customer  party</t>
-  </si>
-  <si>
-    <t>Check  company name validation</t>
-  </si>
-  <si>
-    <t>Check Vat Id validation</t>
-  </si>
-  <si>
-    <t>Check  duplicate source data point</t>
-  </si>
-  <si>
-    <t>(Optional) Check  translation data points if required</t>
-  </si>
-  <si>
-    <t>5_3 - Smoke_test</t>
-  </si>
-  <si>
-    <t>Contact IM to enable newly created [PROD] outbound projects for duplicate check pipeline (Connect projects to IMP pipeline)</t>
-  </si>
-  <si>
-    <t>Contact IM to add outbound projects to XML UBL 2.1 endpoint [PROD]</t>
-  </si>
-  <si>
-    <t>5_4 - Cutover_and_Go_Live</t>
-  </si>
-  <si>
-    <t>Compare project set-up with [TEST] project</t>
-  </si>
-  <si>
-    <t>6_1 - Hypercare_Issues</t>
-  </si>
-  <si>
-    <t>Create and share cutover Plan</t>
-  </si>
-  <si>
     <t>Example File : https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/General/3.%20-%20Go%20Live/20240321%20WILH%20Cut-Over%20Plan.xlsx?d=we02eb91a059b4632ace3cf0acc7f696a&amp;csf=1&amp;web=1&amp;e=RxxUQ7</t>
   </si>
   <si>
-    <t>Inform customer for Production Readiness &amp;  initiate Production deployment</t>
-  </si>
-  <si>
-    <t>6. Hypercare Phase</t>
-  </si>
-  <si>
-    <t>6_2 - Handover_to_Hypatos_Customer_Care</t>
-  </si>
-  <si>
-    <t>Create and share Hypercare Issue Log</t>
-  </si>
-  <si>
     <t>Example File: https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Hypercare%20after%20v1.0%20release/Hypercare%20Issue%20Log.xlsx?d=wfe2e122f9ba146bdaef47f39241aef7e&amp;csf=1&amp;web=1&amp;e=Q4aEIk</t>
   </si>
   <si>
-    <t>Hypercare issue resolutions</t>
-  </si>
-  <si>
-    <t>7_1 - Update_initial_design_sign-off_if_needed,7_2 - Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
-  </si>
-  <si>
-    <t>Update CC Handover Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Documentation Update </t>
-  </si>
-  <si>
-    <t>7_1 - Update_initial_design_sign-off_if_needed</t>
-  </si>
-  <si>
-    <t>7_2 - Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
+    <t>Roll-outWilhelmsen</t>
+  </si>
+  <si>
+    <t>0.ProjectManagement</t>
+  </si>
+  <si>
+    <t>0_1-Update_all_related_dates_in_this_project</t>
+  </si>
+  <si>
+    <t>0_2-Update_roll-out_plan</t>
+  </si>
+  <si>
+    <t>0_3-Internal_meetings</t>
+  </si>
+  <si>
+    <t>1.ProcessDiscovery</t>
+  </si>
+  <si>
+    <t>1_1-Data_Acquisition</t>
+  </si>
+  <si>
+    <t>1_2-Requirement_Gathering</t>
+  </si>
+  <si>
+    <t>Training&amp;PostingDataRequest</t>
+  </si>
+  <si>
+    <t>PostingDataAnalysis</t>
+  </si>
+  <si>
+    <t>TrainingDataAssessment</t>
+  </si>
+  <si>
+    <t>Requestadditionaldocumentsifrequired</t>
+  </si>
+  <si>
+    <t>TrainingData/DocumentSetPreparation</t>
+  </si>
+  <si>
+    <t>Matchtrainingdocumentswithpostingdata</t>
+  </si>
+  <si>
+    <t>2_1-Capturing_Model_Training,2_2-Enrichment_Model_Training</t>
+  </si>
+  <si>
+    <t>ProvideDigitalizationDetailsformtoLocalFinanceTeamandaskexamplesforEdgecases</t>
+  </si>
+  <si>
+    <t>ProvideAssessmentGatheringandTrainingDataFolders</t>
+  </si>
+  <si>
+    <t>[ML]DemoProjectCreationforRequirementsGatheringMeeting</t>
+  </si>
+  <si>
+    <t>RequirementGatheringMeeting</t>
+  </si>
+  <si>
+    <t>RequestexamplesforEdgecases</t>
+  </si>
+  <si>
+    <t>Completefullset-upoftrainingdataforallofthetopsupplierswithEdgecasessharedduringrequirementssession</t>
+  </si>
+  <si>
+    <t>UpdateWHLRequirementList</t>
+  </si>
+  <si>
+    <t>RequirementGatheringFinalization</t>
+  </si>
+  <si>
+    <t>2.ModelTraining</t>
+  </si>
+  <si>
+    <t>2_1-Capturing_Model_Training</t>
+  </si>
+  <si>
+    <t>2_3-Model_Fine_Tuning</t>
+  </si>
+  <si>
+    <t>Createbaseline(groundtruth)projecttoannotate[ML]</t>
+  </si>
+  <si>
+    <t>Uploaddocumentsselectedforannotationtogroundtruthproject(TopsuppliersandEdgecases)</t>
+  </si>
+  <si>
+    <t>Createataskforannotation(adddetailsperrequirements)</t>
+  </si>
+  <si>
+    <t>Validateannotationresultswithpostingdata</t>
+  </si>
+  <si>
+    <t>Improveannotationqualitybasedonvalidationwithpostingdata</t>
+  </si>
+  <si>
+    <t>CreateTrainingProject[ML]</t>
+  </si>
+  <si>
+    <t>UploadselectedtrainingdocumentsfrombaselineprojecttoTrainingProject[ML]</t>
+  </si>
+  <si>
+    <t>CreateQAProject[ML]</t>
+  </si>
+  <si>
+    <t>ConfigureQAprojectwithCompositeEnrichmentIndex</t>
+  </si>
+  <si>
+    <t>CreateLLMPromptingService[ML]</t>
+  </si>
+  <si>
+    <t>Uploadbaseline(groundtruth)documentstoQAProject[ML]</t>
+  </si>
+  <si>
+    <t>CreateErrorAnalysisDashboard</t>
+  </si>
+  <si>
+    <t>AnalyzeQAresultsandaccuracy</t>
+  </si>
+  <si>
+    <t>2_2-Enrichment_Model_Training</t>
+  </si>
+  <si>
+    <t>CreateIMPtrainingproject[TEST]</t>
+  </si>
+  <si>
+    <t>ContactwithIMtoenableIMPpipeline</t>
+  </si>
+  <si>
+    <t>UploaddocumentstoIMPtrainingproject</t>
+  </si>
+  <si>
+    <t>TrainsuppliersusingdocumentsuploadedtoIMPproject</t>
+  </si>
+  <si>
+    <t>3_1-Create_Projects_[TEST]</t>
+  </si>
+  <si>
+    <t>Improve/OptimizeLLMPromptingServicepromptwithErrorAnalysisresults</t>
+  </si>
+  <si>
+    <t>AddadditionalsupplierstoIMPprojectifrequired</t>
+  </si>
+  <si>
+    <t>3.StudioConfiguration</t>
+  </si>
+  <si>
+    <t>3_2-Configure_Projects_[TEST]</t>
+  </si>
+  <si>
+    <t>Configureprojectschemawithagreeduponrequirementslistspoints</t>
+  </si>
+  <si>
+    <t>Add/Changeaccountingsupplier/customerparty</t>
+  </si>
+  <si>
+    <t>Add/Changecompanynamevalidation</t>
+  </si>
+  <si>
+    <t>Add/checkvatidvalidation</t>
+  </si>
+  <si>
+    <t>Check/changeduplicatesourcedatapoint</t>
+  </si>
+  <si>
+    <t>(Optional)Addtranslationdatapointsifrequired</t>
+  </si>
+  <si>
+    <t>4_1-Testing_Set-up</t>
+  </si>
+  <si>
+    <t>CreateaCOEtickettoconfigureReroutingrules</t>
+  </si>
+  <si>
+    <t>ContactIMforcompositeenrichmentset-upconfiguration</t>
+  </si>
+  <si>
+    <t>ContactIMtocreateandconfigureLLMpromptingservice</t>
+  </si>
+  <si>
+    <t>ContactIMtoenablenewlycreated[TEST]outboundprojectsforduplicatecheckpipeline(ConnectprojectstoIMPpipeline)</t>
+  </si>
+  <si>
+    <t>ContactIMtoaddoutboundprojectstoXMLUBL2.1endpoint[TEST]</t>
+  </si>
+  <si>
+    <t>ContactIMtoenabletranslationforoutboundprojects</t>
+  </si>
+  <si>
+    <t>4.Testing</t>
+  </si>
+  <si>
+    <t>4_2-Functional_Testing_by_HY</t>
+  </si>
+  <si>
+    <t>CopyandupdateTestWorkbookfornewphaseifneeded</t>
+  </si>
+  <si>
+    <t>4_3-Testing_by_Wilhelmsen</t>
+  </si>
+  <si>
+    <t>Compareprojectset-upwithrequirementslistforspecificcountry</t>
+  </si>
+  <si>
+    <t>UploaddocumentstoGatewayprojectandtestrouting</t>
+  </si>
+  <si>
+    <t>Testadvancedduplicatetesting</t>
+  </si>
+  <si>
+    <t>Testifenrichmentisworkingproperlywithcompanycodefilter</t>
+  </si>
+  <si>
+    <t>TestifXMLendpointifavailableforoutboundprojects(Postman)</t>
+  </si>
+  <si>
+    <t>[Optional]Testtranslationfeature</t>
+  </si>
+  <si>
+    <t>5_1-Create_Projects_[PROD]</t>
+  </si>
+  <si>
+    <t>AddprojectstoRequirementsList</t>
+  </si>
+  <si>
+    <t>ShareTestWorkbook</t>
+  </si>
+  <si>
+    <t>Wilhelmsentoconfigureintegration&amp;performSystemIntegrationTesting(SIT)</t>
+  </si>
+  <si>
+    <t>WilhelmsentoperformFunctionalTesting</t>
+  </si>
+  <si>
+    <t>WilhelmsentoperformUserAcceptanceTesting(UAT)</t>
+  </si>
+  <si>
+    <t>TestingSupportTasks(IssueResolution)</t>
+  </si>
+  <si>
+    <t>Analysis&amp;FinalizationofTests</t>
+  </si>
+  <si>
+    <t>5.DeploymenttoProduction</t>
+  </si>
+  <si>
+    <t>5_2-Configure_Projects_[PROD]</t>
+  </si>
+  <si>
+    <t>Checkaccountingsupplier/customerparty</t>
+  </si>
+  <si>
+    <t>Checkcompanynamevalidation</t>
+  </si>
+  <si>
+    <t>CheckVatIdvalidation</t>
+  </si>
+  <si>
+    <t>Checkduplicatesourcedatapoint</t>
+  </si>
+  <si>
+    <t>(Optional)Checktranslationdatapointsifrequired</t>
+  </si>
+  <si>
+    <t>5_3-Smoke_test</t>
+  </si>
+  <si>
+    <t>ContactIMtoenablenewlycreated[PROD]outboundprojectsforduplicatecheckpipeline(ConnectprojectstoIMPpipeline)</t>
+  </si>
+  <si>
+    <t>ContactIMtoaddoutboundprojectstoXMLUBL2.1endpoint[PROD]</t>
+  </si>
+  <si>
+    <t>5_4-Cutover_and_Go_Live</t>
+  </si>
+  <si>
+    <t>Compareprojectset-upwith[TEST]project</t>
+  </si>
+  <si>
+    <t>6_1-Hypercare_Issues</t>
+  </si>
+  <si>
+    <t>CreateandsharecutoverPlan</t>
+  </si>
+  <si>
+    <t>InformcustomerforProductionReadiness&amp;initiateProductiondeployment</t>
+  </si>
+  <si>
+    <t>6.HypercarePhase</t>
+  </si>
+  <si>
+    <t>6_2-Handover_to_Hypatos_Customer_Care</t>
+  </si>
+  <si>
+    <t>CreateandshareHypercareIssueLog</t>
+  </si>
+  <si>
+    <t>Hypercareissueresolutions</t>
+  </si>
+  <si>
+    <t>7_1-Update_initial_design_sign-off_if_needed,7_2-Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
+  </si>
+  <si>
+    <t>UpdateCCHandoverPage</t>
+  </si>
+  <si>
+    <t>7.DocumentationUpdate</t>
+  </si>
+  <si>
+    <t>7_1-Update_initial_design_sign-off_if_needed</t>
+  </si>
+  <si>
+    <t>7_2-Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1637,20 +1638,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B2479B-C25A-5C46-8BD3-603EE30C2BE8}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="97.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1673,12 +1676,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -1686,30 +1689,30 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.95">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="15.95">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1718,1700 +1721,1700 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.95">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.95">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.95">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15.95">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.95">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="15.95">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="15.95">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="15.95">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="15.95">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="15.95">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="15.95">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="47.1" customHeight="1">
+    <row r="16" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="224.1">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="15.95">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="15.95">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" ht="15.95">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" ht="15.95">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="15.95">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="9"/>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="15.95">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="15.95">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="15.95">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.95">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="15.95">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="15.95">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="15.95">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="15.95">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="15.95">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.95">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="15.95">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="15.95">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="15.95">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="15.95">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="15.95">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="15.95">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="15.95">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.95">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="15.95">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="15.95">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="15.95">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="15.95">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.95">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" ht="15.95">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" ht="15.95">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" ht="15.95">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.95">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="15.95">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" ht="15.95">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="15.95">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" ht="15.95">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" ht="15.95">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" ht="15.95">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.95">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" ht="15.95">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" ht="15.95">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="15.95">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" ht="15.95">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" ht="15.95">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" ht="15.95">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" ht="15.95">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.95">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" ht="15.95">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.95">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" ht="15.95">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" ht="15.95">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" ht="15.95">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" ht="15.95">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" ht="15.95">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" ht="15.95">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D72" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.95">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" ht="15.95">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" ht="15.95">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" ht="15.95">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="5"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" ht="15.95">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="15.95">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" ht="15.95">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" ht="15.95">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" ht="15.95">
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.95">
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" ht="15.95">
+    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" ht="15.95">
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" ht="15.95">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" ht="15.95">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" ht="15.95">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" ht="15.95">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.95">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" ht="15.95">
+    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" ht="15.95">
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" ht="15.95">
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" ht="15.95">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" ht="15.95">
+    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" ht="15.95">
+    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.95">
+    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" ht="15.95">
+    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" ht="15.95">
+    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" ht="15.95">
+    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" ht="15.95">
+    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.95">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F104" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.95">
-      <c r="A107" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="B107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G107" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.95">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D110" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>129</v>
@@ -3420,34 +3423,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>131</v>
@@ -3458,12 +3461,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.95">
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>131</v>
@@ -3476,181 +3479,532 @@
   </sheetData>
   <autoFilter ref="A1:G114" xr:uid="{C0B2479B-C25A-5C46-8BD3-603EE30C2BE8}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="76" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="76" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="104"/>
     <cfRule type="duplicateValues" dxfId="74" priority="39"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="73" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="71" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="69" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="duplicateValues" dxfId="67" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="duplicateValues" dxfId="65" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="duplicateValues" dxfId="61" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="73" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="71" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="69" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="66" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="64" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="61" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="59" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="duplicateValues" dxfId="57" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="53" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="51" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="49" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="47" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="45" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="43" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="40" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="35" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="33" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="31" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="duplicateValues" dxfId="29" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="duplicateValues" dxfId="27" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="duplicateValues" dxfId="25" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="duplicateValues" dxfId="23" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91 E99">
-    <cfRule type="duplicateValues" dxfId="21" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d57a97e-bf0b-4cec-a587-841817f75a75">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d57067be-9d14-4795-a8ab-0027d10e2a03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE0DB8-683A-5E4D-9A10-1C52794522C7}">
+  <dimension ref="A1:A108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+    </row>
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+    </row>
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+    </row>
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+    </row>
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+    </row>
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+    </row>
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+    </row>
+    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+    </row>
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+    </row>
+    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+    </row>
+    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+    </row>
+    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+    </row>
+    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+    </row>
+    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+    </row>
+    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+    </row>
+    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+    </row>
+    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="9"/>
+    </row>
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+    </row>
+    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+    </row>
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+    </row>
+    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+    </row>
+    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+    </row>
+    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+    </row>
+    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+    </row>
+    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+    </row>
+    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="9"/>
+    </row>
+    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+    </row>
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="9"/>
+    </row>
+    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+    </row>
+    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="9"/>
+    </row>
+    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="9"/>
+    </row>
+    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+    </row>
+    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+    </row>
+    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="9"/>
+    </row>
+    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="9"/>
+    </row>
+    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="9"/>
+    </row>
+    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="9"/>
+    </row>
+    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="9"/>
+    </row>
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="9"/>
+    </row>
+    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="9"/>
+    </row>
+    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="9"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100541D480877BA4048A9D91342E163CE04" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="28d96b37b54d0536772fb70d3e350a96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d57a97e-bf0b-4cec-a587-841817f75a75" xmlns:ns3="d57067be-9d14-4795-a8ab-0027d10e2a03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f1fc382afb7be30a231b340c6285373" ns2:_="" ns3:_="">
     <xsd:import namespace="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
@@ -3905,14 +4259,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d57a97e-bf0b-4cec-a587-841817f75a75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d57067be-9d14-4795-a8ab-0027d10e2a03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EEA4BE-BEF6-40EB-9E91-95E267084DF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702467FC-0767-4CD6-B1F3-E30D48499054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
+    <ds:schemaRef ds:uri="d57067be-9d14-4795-a8ab-0027d10e2a03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62374C78-7643-457E-861B-A603D8D81D7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62374C78-7643-457E-861B-A603D8D81D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702467FC-0767-4CD6-B1F3-E30D48499054}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EEA4BE-BEF6-40EB-9E91-95E267084DF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
+    <ds:schemaRef ds:uri="d57067be-9d14-4795-a8ab-0027d10e2a03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/IssueBluePrintRolloutWIL.xlsx
+++ b/templates/IssueBluePrintRolloutWIL.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB71B3-1233-9F43-8E93-C1A778BE6E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5174070-3E3A-904D-86D3-C8D84259E863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="1460" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WilhIssueBluePrintRollout" sheetId="16" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
+    <sheet name="test" sheetId="17" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WilhIssueBluePrintRollout!$A$1:$G$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$114</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="134">
   <si>
     <t>Summary</t>
   </si>
@@ -567,7 +567,547 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="131">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1639,7 +2179,7 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3479,153 +4019,153 @@
   </sheetData>
   <autoFilter ref="A1:G114" xr:uid="{C0B2479B-C25A-5C46-8BD3-603EE30C2BE8}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="76" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="73" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="71" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="69" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="67" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="65" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="63" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="duplicateValues" dxfId="61" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="53" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="51" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="49" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="41" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="39" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="duplicateValues" dxfId="37" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="duplicateValues" dxfId="35" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="33" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="31" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="29" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="27" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="25" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="20" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="18" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="15" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="13" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="11" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="duplicateValues" dxfId="9" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="duplicateValues" dxfId="7" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="duplicateValues" dxfId="5" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="duplicateValues" dxfId="3" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91 E99">
-    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="44"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3633,10 +4173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE0DB8-683A-5E4D-9A10-1C52794522C7}">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A108"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3644,367 +4184,641 @@
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-    </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-    </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
-    </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-    </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
-    </row>
-    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-    </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
-    </row>
-    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-    </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
-    </row>
-    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-    </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-    </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-    </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
-    </row>
-    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-    </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
-    </row>
-    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
-    </row>
-    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-    </row>
-    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-    </row>
-    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
-    </row>
-    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-    </row>
-    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
-    </row>
-    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
-    </row>
-    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
-    </row>
-    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
-    </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
-    </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
-    </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
-    </row>
-    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-    </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
-    </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-    </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-    </row>
-    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
-    </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
-    </row>
-    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
-    </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
-    </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-    </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-    </row>
-    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
-    </row>
-    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
-    </row>
-    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-    </row>
-    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
-    </row>
-    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
-    </row>
-    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-    </row>
-    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
-    </row>
-    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-    </row>
-    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-    </row>
-    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
-    </row>
-    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
-    </row>
-    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-    </row>
-    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-    </row>
-    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
-    </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
-    </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-    </row>
-    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-    </row>
-    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="9"/>
+      <c r="B113" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="53" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="51" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="24" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="15" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="11" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="duplicateValues" dxfId="8" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90 B98">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d57a97e-bf0b-4cec-a587-841817f75a75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d57067be-9d14-4795-a8ab-0027d10e2a03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100541D480877BA4048A9D91342E163CE04" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="28d96b37b54d0536772fb70d3e350a96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d57a97e-bf0b-4cec-a587-841817f75a75" xmlns:ns3="d57067be-9d14-4795-a8ab-0027d10e2a03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f1fc382afb7be30a231b340c6285373" ns2:_="" ns3:_="">
     <xsd:import namespace="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
@@ -4259,27 +5073,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EEA4BE-BEF6-40EB-9E91-95E267084DF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
+    <ds:schemaRef ds:uri="d57067be-9d14-4795-a8ab-0027d10e2a03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d57a97e-bf0b-4cec-a587-841817f75a75">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d57067be-9d14-4795-a8ab-0027d10e2a03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62374C78-7643-457E-861B-A603D8D81D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702467FC-0767-4CD6-B1F3-E30D48499054}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4296,23 +5109,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62374C78-7643-457E-861B-A603D8D81D7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EEA4BE-BEF6-40EB-9E91-95E267084DF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
-    <ds:schemaRef ds:uri="d57067be-9d14-4795-a8ab-0027d10e2a03"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/IssueBluePrintRolloutWIL.xlsx
+++ b/templates/IssueBluePrintRolloutWIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5174070-3E3A-904D-86D3-C8D84259E863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E5CB2-36DF-A044-BE1C-393DF3779634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="1460" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="134">
   <si>
     <t>Summary</t>
   </si>
@@ -2179,7 +2179,7 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2324,12 +2324,6 @@
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="9">
         <v>3</v>
@@ -2445,12 +2439,6 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9">
         <v>3</v>
@@ -2605,12 +2593,8 @@
       <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9">
         <v>3</v>
@@ -2827,12 +2811,7 @@
       <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9">
         <v>1</v>
@@ -2908,12 +2887,8 @@
       <c r="C44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9">
         <v>1</v>
@@ -2974,12 +2949,8 @@
       <c r="C48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9">
         <v>1</v>
@@ -3085,12 +3056,8 @@
       <c r="C55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9">
         <v>1</v>
@@ -3213,12 +3180,8 @@
       <c r="C63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9">
         <v>1</v>
@@ -3251,12 +3214,8 @@
       <c r="C65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9">
         <v>1</v>
@@ -3364,12 +3323,8 @@
       <c r="C72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9">
         <v>3</v>
@@ -3507,12 +3462,8 @@
       <c r="C81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9">
         <v>1</v>
@@ -3618,12 +3569,8 @@
       <c r="C88" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>117</v>
-      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9">
         <v>1</v>
@@ -3731,12 +3678,8 @@
       <c r="C95" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9">
         <v>1</v>
@@ -3838,12 +3781,8 @@
       <c r="C102" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
       <c r="G102" s="2">
         <v>1</v>
       </c>
@@ -3908,12 +3847,8 @@
       <c r="C107" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
       <c r="G107" s="2">
         <v>5</v>
       </c>
@@ -3953,12 +3888,8 @@
       <c r="C110" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>129</v>
-      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
       <c r="G110" s="2">
         <v>1</v>
       </c>
@@ -4019,9 +3950,9 @@
   </sheetData>
   <autoFilter ref="A1:G114" xr:uid="{C0B2479B-C25A-5C46-8BD3-603EE30C2BE8}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="130" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="39"/>
     <cfRule type="duplicateValues" dxfId="129" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="127" priority="19"/>
@@ -4060,8 +3991,8 @@
     <cfRule type="duplicateValues" dxfId="110" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="duplicateValues" dxfId="109" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="duplicateValues" dxfId="107" priority="112"/>
@@ -4072,38 +4003,38 @@
     <cfRule type="duplicateValues" dxfId="104" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="103" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
     <cfRule type="duplicateValues" dxfId="100" priority="118"/>
     <cfRule type="duplicateValues" dxfId="99" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="98" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="36"/>
     <cfRule type="duplicateValues" dxfId="97" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="95" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="93" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="duplicateValues" dxfId="91" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
     <cfRule type="duplicateValues" dxfId="89" priority="46"/>
     <cfRule type="duplicateValues" dxfId="88" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="87" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
     <cfRule type="duplicateValues" dxfId="85" priority="100"/>
@@ -4114,25 +4045,25 @@
     <cfRule type="duplicateValues" dxfId="82" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="81" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="79" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="77" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="24"/>
     <cfRule type="duplicateValues" dxfId="76" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="74" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="72" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="34"/>
     <cfRule type="duplicateValues" dxfId="70" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
@@ -4140,32 +4071,32 @@
     <cfRule type="duplicateValues" dxfId="68" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="67" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
     <cfRule type="duplicateValues" dxfId="65" priority="126"/>
     <cfRule type="duplicateValues" dxfId="64" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="duplicateValues" dxfId="63" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="duplicateValues" dxfId="61" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="duplicateValues" dxfId="59" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="duplicateValues" dxfId="57" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91 E99">
-    <cfRule type="duplicateValues" dxfId="55" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="45"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4173,64 +4104,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE0DB8-683A-5E4D-9A10-1C52794522C7}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-    </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
@@ -4240,42 +4172,44 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4283,16 +4217,16 @@
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
@@ -4307,11 +4241,11 @@
       <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4331,28 +4265,28 @@
       <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
@@ -4363,40 +4297,40 @@
       <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-    </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
@@ -4419,16 +4353,16 @@
       <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
@@ -4451,32 +4385,32 @@
       <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-    </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
@@ -4499,32 +4433,32 @@
       <c r="B70" s="9"/>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B72" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-    </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="7"/>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
@@ -4539,286 +4473,279 @@
       <c r="B79" s="9"/>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-    </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B88" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-    </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="9" t="s">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="2"/>
-    </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
       <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
       <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B107" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="2"/>
-    </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B110" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="2"/>
-    </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
-      <c r="B113" s="2"/>
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="B114" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="53" priority="41"/>
     <cfRule type="duplicateValues" dxfId="52" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="51" priority="43"/>
     <cfRule type="duplicateValues" dxfId="50" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="46" priority="47"/>
     <cfRule type="duplicateValues" dxfId="45" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
     <cfRule type="duplicateValues" dxfId="43" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="42" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="41" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="39" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="37" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
     <cfRule type="duplicateValues" dxfId="35" priority="15"/>
     <cfRule type="duplicateValues" dxfId="34" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="33" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
     <cfRule type="duplicateValues" dxfId="31" priority="37"/>
     <cfRule type="duplicateValues" dxfId="30" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="A74">
     <cfRule type="duplicateValues" dxfId="29" priority="31"/>
     <cfRule type="duplicateValues" dxfId="28" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="24" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="25" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
     <cfRule type="duplicateValues" dxfId="22" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
     <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="B36">
     <cfRule type="duplicateValues" dxfId="15" priority="33"/>
     <cfRule type="duplicateValues" dxfId="14" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B43">
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
     <cfRule type="duplicateValues" dxfId="11" priority="53"/>
     <cfRule type="duplicateValues" dxfId="10" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="duplicateValues" dxfId="8" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90 B98">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="duplicateValues" dxfId="7" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91 B99">
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d57a97e-bf0b-4cec-a587-841817f75a75">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d57067be-9d14-4795-a8ab-0027d10e2a03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100541D480877BA4048A9D91342E163CE04" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="28d96b37b54d0536772fb70d3e350a96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d57a97e-bf0b-4cec-a587-841817f75a75" xmlns:ns3="d57067be-9d14-4795-a8ab-0027d10e2a03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f1fc382afb7be30a231b340c6285373" ns2:_="" ns3:_="">
     <xsd:import namespace="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
@@ -5073,26 +5000,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EEA4BE-BEF6-40EB-9E91-95E267084DF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
-    <ds:schemaRef ds:uri="d57067be-9d14-4795-a8ab-0027d10e2a03"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62374C78-7643-457E-861B-A603D8D81D7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d57a97e-bf0b-4cec-a587-841817f75a75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d57067be-9d14-4795-a8ab-0027d10e2a03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702467FC-0767-4CD6-B1F3-E30D48499054}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5109,4 +5037,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62374C78-7643-457E-861B-A603D8D81D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EEA4BE-BEF6-40EB-9E91-95E267084DF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
+    <ds:schemaRef ds:uri="d57067be-9d14-4795-a8ab-0027d10e2a03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/IssueBluePrintRolloutWIL.xlsx
+++ b/templates/IssueBluePrintRolloutWIL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E5CB2-36DF-A044-BE1C-393DF3779634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9184F6FF-B485-ED4E-9B80-7FDE98ED559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1460" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="3820" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="138">
   <si>
     <t>Summary</t>
   </si>
@@ -105,21 +105,9 @@
 </t>
   </si>
   <si>
-    <t>Take the example from [ML] Project - [OC Entities][Phase 3] Oman</t>
-  </si>
-  <si>
     <t>https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Solution%20Design/Datapoint_Requirements/20230803%20WHL%20Requirement%20List.xlsx?d=wa1d0a15e28594d848e8def48ff3796e2&amp;csf=1&amp;web=1&amp;e=hxnCwT</t>
   </si>
   <si>
-    <t>Take the example from [ML] Project - NZ_Annotation</t>
-  </si>
-  <si>
-    <t>Take the example from[ML] Project - [Training][PROD][NZ]</t>
-  </si>
-  <si>
-    <t>Take the example from [ML] Project -  [QA] NZ</t>
-  </si>
-  <si>
     <t>Example task : https://hypatos.atlassian.net/browse/WHL-825</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
     <t>ProvideAssessmentGatheringandTrainingDataFolders</t>
   </si>
   <si>
-    <t>[ML]DemoProjectCreationforRequirementsGatheringMeeting</t>
-  </si>
-  <si>
     <t>RequirementGatheringMeeting</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>2_3-Model_Fine_Tuning</t>
   </si>
   <si>
-    <t>Createbaseline(groundtruth)projecttoannotate[ML]</t>
-  </si>
-  <si>
     <t>Uploaddocumentsselectedforannotationtogroundtruthproject(TopsuppliersandEdgecases)</t>
   </si>
   <si>
@@ -228,24 +210,9 @@
     <t>Improveannotationqualitybasedonvalidationwithpostingdata</t>
   </si>
   <si>
-    <t>CreateTrainingProject[ML]</t>
-  </si>
-  <si>
-    <t>UploadselectedtrainingdocumentsfrombaselineprojecttoTrainingProject[ML]</t>
-  </si>
-  <si>
-    <t>CreateQAProject[ML]</t>
-  </si>
-  <si>
     <t>ConfigureQAprojectwithCompositeEnrichmentIndex</t>
   </si>
   <si>
-    <t>CreateLLMPromptingService[ML]</t>
-  </si>
-  <si>
-    <t>Uploadbaseline(groundtruth)documentstoQAProject[ML]</t>
-  </si>
-  <si>
     <t>CreateErrorAnalysisDashboard</t>
   </si>
   <si>
@@ -255,9 +222,6 @@
     <t>2_2-Enrichment_Model_Training</t>
   </si>
   <si>
-    <t>CreateIMPtrainingproject[TEST]</t>
-  </si>
-  <si>
     <t>ContactwithIMtoenableIMPpipeline</t>
   </si>
   <si>
@@ -312,12 +276,6 @@
     <t>ContactIMtocreateandconfigureLLMpromptingservice</t>
   </si>
   <si>
-    <t>ContactIMtoenablenewlycreated[TEST]outboundprojectsforduplicatecheckpipeline(ConnectprojectstoIMPpipeline)</t>
-  </si>
-  <si>
-    <t>ContactIMtoaddoutboundprojectstoXMLUBL2.1endpoint[TEST]</t>
-  </si>
-  <si>
     <t>ContactIMtoenabletranslationforoutboundprojects</t>
   </si>
   <si>
@@ -348,9 +306,6 @@
     <t>TestifXMLendpointifavailableforoutboundprojects(Postman)</t>
   </si>
   <si>
-    <t>[Optional]Testtranslationfeature</t>
-  </si>
-  <si>
     <t>5_1-Create_Projects_[PROD]</t>
   </si>
   <si>
@@ -399,18 +354,9 @@
     <t>5_3-Smoke_test</t>
   </si>
   <si>
-    <t>ContactIMtoenablenewlycreated[PROD]outboundprojectsforduplicatecheckpipeline(ConnectprojectstoIMPpipeline)</t>
-  </si>
-  <si>
-    <t>ContactIMtoaddoutboundprojectstoXMLUBL2.1endpoint[PROD]</t>
-  </si>
-  <si>
     <t>5_4-Cutover_and_Go_Live</t>
   </si>
   <si>
-    <t>Compareprojectset-upwith[TEST]project</t>
-  </si>
-  <si>
     <t>6_1-Hypercare_Issues</t>
   </si>
   <si>
@@ -445,15 +391,88 @@
   </si>
   <si>
     <t>7_2-Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
+  </si>
+  <si>
+    <t>MLDemoProjectCreationforRequirementsGatheringMeeting</t>
+  </si>
+  <si>
+    <t>Take the example from ML Project - OC EntitiesPhase 3 Oman</t>
+  </si>
+  <si>
+    <t>Createbaseline(groundtruth)projecttoannotateML</t>
+  </si>
+  <si>
+    <t>Take the example from ML Project - NZ_Annotation</t>
+  </si>
+  <si>
+    <t>CreateTrainingProjectML</t>
+  </si>
+  <si>
+    <t>Take the example fromML Project - TrainingPRODNZ</t>
+  </si>
+  <si>
+    <t>UploadselectedtrainingdocumentsfrombaselineprojecttoTrainingProjectML</t>
+  </si>
+  <si>
+    <t>CreateQAProjectML</t>
+  </si>
+  <si>
+    <t>Take the example from ML Project -  QA NZ</t>
+  </si>
+  <si>
+    <t>CreateLLMPromptingServiceML</t>
+  </si>
+  <si>
+    <t>Uploadbaseline(groundtruth)documentstoQAProjectML</t>
+  </si>
+  <si>
+    <t>CreateIMPtrainingprojectTEST</t>
+  </si>
+  <si>
+    <t>3_1-Create_Projects_TEST</t>
+  </si>
+  <si>
+    <t>3_2-Configure_Projects_TEST</t>
+  </si>
+  <si>
+    <t>ContactIMtoenablenewlycreatedTESToutboundprojectsforduplicatecheckpipeline(ConnectprojectstoIMPpipeline)</t>
+  </si>
+  <si>
+    <t>ContactIMtoaddoutboundprojectstoXMLUBL2.1endpointTEST</t>
+  </si>
+  <si>
+    <t>OptionalTesttranslationfeature</t>
+  </si>
+  <si>
+    <t>5_1-Create_Projects_PROD</t>
+  </si>
+  <si>
+    <t>5_2-Configure_Projects_PROD</t>
+  </si>
+  <si>
+    <t>ContactIMtoenablenewlycreatedPRODoutboundprojectsforduplicatecheckpipeline(ConnectprojectstoIMPpipeline)</t>
+  </si>
+  <si>
+    <t>ContactIMtoaddoutboundprojectstoXMLUBL2.1endpointPROD</t>
+  </si>
+  <si>
+    <t>Compareprojectset-upwithTESTproject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -536,33 +555,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2178,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B2479B-C25A-5C46-8BD3-603EE30C2BE8}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2218,7 +2238,7 @@
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -2231,13 +2251,13 @@
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2246,13 +2266,13 @@
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2263,13 +2283,13 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2282,13 +2302,13 @@
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2301,13 +2321,13 @@
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2316,13 +2336,19 @@
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="9">
@@ -2331,13 +2357,13 @@
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2346,13 +2372,13 @@
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -2363,13 +2389,13 @@
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2380,13 +2406,13 @@
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2397,13 +2423,13 @@
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2414,13 +2440,13 @@
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2431,13 +2457,19 @@
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9">
@@ -2446,13 +2478,13 @@
     </row>
     <row r="16" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>18</v>
@@ -2461,13 +2493,13 @@
     </row>
     <row r="17" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>19</v>
@@ -2476,30 +2508,30 @@
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2508,13 +2540,13 @@
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2523,13 +2555,13 @@
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2538,30 +2570,30 @@
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="9"/>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2570,13 +2602,13 @@
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2585,15 +2617,17 @@
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9">
@@ -2602,30 +2636,30 @@
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2634,13 +2668,13 @@
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2649,13 +2683,13 @@
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2664,13 +2698,13 @@
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="9"/>
@@ -2679,30 +2713,30 @@
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2711,30 +2745,30 @@
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -2743,13 +2777,13 @@
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2758,13 +2792,13 @@
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2773,13 +2807,13 @@
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2788,13 +2822,13 @@
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2803,15 +2837,20 @@
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9">
         <v>1</v>
@@ -2819,13 +2858,13 @@
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2834,13 +2873,13 @@
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2849,13 +2888,13 @@
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2864,13 +2903,13 @@
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8"/>
@@ -2879,16 +2918,20 @@
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9">
         <v>1</v>
@@ -2896,13 +2939,13 @@
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2911,13 +2954,13 @@
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
@@ -2926,13 +2969,13 @@
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2941,16 +2984,20 @@
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9">
         <v>1</v>
@@ -2958,13 +3005,13 @@
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -2973,13 +3020,13 @@
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -2988,13 +3035,13 @@
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -3003,13 +3050,13 @@
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -3018,13 +3065,13 @@
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -3033,13 +3080,13 @@
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -3048,16 +3095,20 @@
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9">
         <v>1</v>
@@ -3065,30 +3116,30 @@
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -3097,13 +3148,13 @@
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -3112,13 +3163,13 @@
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -3127,13 +3178,13 @@
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -3142,13 +3193,13 @@
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -3157,13 +3208,13 @@
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3172,16 +3223,20 @@
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9">
         <v>1</v>
@@ -3189,33 +3244,37 @@
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9">
         <v>1</v>
@@ -3223,30 +3282,30 @@
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -3255,13 +3314,13 @@
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -3270,13 +3329,13 @@
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -3285,13 +3344,13 @@
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -3300,13 +3359,13 @@
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -3315,16 +3374,20 @@
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9">
         <v>3</v>
@@ -3332,13 +3395,13 @@
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -3347,30 +3410,30 @@
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -3379,13 +3442,13 @@
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="5"/>
@@ -3394,13 +3457,13 @@
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -3409,13 +3472,13 @@
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -3424,13 +3487,13 @@
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -3439,13 +3502,13 @@
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -3454,16 +3517,20 @@
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9">
         <v>1</v>
@@ -3471,13 +3538,13 @@
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3486,13 +3553,13 @@
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -3501,13 +3568,13 @@
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -3516,13 +3583,13 @@
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3531,13 +3598,13 @@
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -3546,13 +3613,13 @@
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -3561,16 +3628,20 @@
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9">
         <v>1</v>
@@ -3578,30 +3649,30 @@
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -3610,13 +3681,13 @@
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3625,13 +3696,13 @@
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3640,13 +3711,13 @@
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -3655,13 +3726,13 @@
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -3670,16 +3741,20 @@
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9">
         <v>1</v>
@@ -3687,13 +3762,13 @@
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3702,13 +3777,13 @@
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -3717,13 +3792,13 @@
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -3732,13 +3807,13 @@
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3747,13 +3822,13 @@
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3762,169 +3837,181 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F104" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G107" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="G110" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -3934,13 +4021,13 @@
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D114" s="9"/>
       <c r="G114" s="2">
@@ -3950,153 +4037,153 @@
   </sheetData>
   <autoFilter ref="A1:G114" xr:uid="{C0B2479B-C25A-5C46-8BD3-603EE30C2BE8}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="130" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="127" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="125" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="123" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="121" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="119" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="117" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="duplicateValues" dxfId="115" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="duplicateValues" dxfId="113" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="duplicateValues" dxfId="111" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="duplicateValues" dxfId="109" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="107" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="105" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="103" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="100" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="98" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="95" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="93" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="duplicateValues" dxfId="91" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="duplicateValues" dxfId="89" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="87" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="83" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="81" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="79" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="77" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="74" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="72" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="69" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="67" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="65" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="duplicateValues" dxfId="63" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="duplicateValues" dxfId="61" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="duplicateValues" dxfId="59" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="duplicateValues" dxfId="57" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91 E99">
-    <cfRule type="duplicateValues" dxfId="55" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4107,7 +4194,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection sqref="A1:B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4146,10 +4233,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4178,10 +4265,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4222,10 +4309,10 @@
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4282,10 +4369,10 @@
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4306,10 +4393,10 @@
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4326,10 +4413,10 @@
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4358,10 +4445,10 @@
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4394,10 +4481,10 @@
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4406,10 +4493,10 @@
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4438,10 +4525,10 @@
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4478,10 +4565,10 @@
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4510,10 +4597,10 @@
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4542,10 +4629,10 @@
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4574,10 +4661,10 @@
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4598,10 +4685,10 @@
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4614,10 +4701,10 @@
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4638,8 +4725,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="53" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="51" priority="43"/>
@@ -4660,86 +4747,86 @@
     <cfRule type="duplicateValues" dxfId="42" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="41" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="39" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="37" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
     <cfRule type="duplicateValues" dxfId="33" priority="51"/>
     <cfRule type="duplicateValues" dxfId="32" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="25" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
     <cfRule type="duplicateValues" dxfId="23" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
     <cfRule type="duplicateValues" dxfId="17" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
     <cfRule type="duplicateValues" dxfId="15" priority="33"/>
     <cfRule type="duplicateValues" dxfId="14" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="11" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
     <cfRule type="duplicateValues" dxfId="9" priority="27"/>
     <cfRule type="duplicateValues" dxfId="8" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="7" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91 B99">
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/IssueBluePrintRolloutWIL.xlsx
+++ b/templates/IssueBluePrintRolloutWIL.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9184F6FF-B485-ED4E-9B80-7FDE98ED559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F866F1F-6190-9E48-A4C9-BF4913B8E8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="3820" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="2920" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
-    <sheet name="test" sheetId="17" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$114</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="134">
   <si>
     <t>Summary</t>
   </si>
@@ -63,41 +62,92 @@
     <t>Duration</t>
   </si>
   <si>
+    <t>Roll-out_Wilhelmsen</t>
+  </si>
+  <si>
     <t>Project</t>
   </si>
   <si>
+    <t>0_Project_Management</t>
+  </si>
+  <si>
     <t>Epic</t>
   </si>
   <si>
+    <t>0_1_-_Update_all_related_dates_in_this_project</t>
+  </si>
+  <si>
     <t>Task</t>
   </si>
   <si>
+    <t>0_2_-_Update_roll-out_plan</t>
+  </si>
+  <si>
     <t>File : https://wilhelmsen.sharepoint.com/:f:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/PMO/Rollout%20Plan?csf=1&amp;web=1&amp;e=eIf44E</t>
   </si>
   <si>
+    <t>0_3_-_Internal_meetings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task to log general internal meetings </t>
   </si>
   <si>
+    <t>1_Process_Discovery</t>
+  </si>
+  <si>
+    <t>1_1_-_Data_Acquisition</t>
+  </si>
+  <si>
+    <t>1_2_-_Requirement_Gathering</t>
+  </si>
+  <si>
+    <t>Training_&amp;_Posting_Data_Request</t>
+  </si>
+  <si>
     <t>Sub-task</t>
   </si>
   <si>
+    <t>Posting_Data_Analysis</t>
+  </si>
+  <si>
     <t>Analyze posting data and determine top suppliers (&gt;90% coverage)</t>
   </si>
   <si>
+    <t>Training_Data_Assessment</t>
+  </si>
+  <si>
     <t>Check if all top suppliers has sample documents with specified naming convention</t>
   </si>
   <si>
+    <t>Request_additional_documents_if_required</t>
+  </si>
+  <si>
     <t>Request if any top supplier document is missing</t>
   </si>
   <si>
+    <t>Training_Data/Document_Set_Preparation</t>
+  </si>
+  <si>
     <t>Prepare training, annotation documents</t>
   </si>
   <si>
+    <t>Match_training_documents_with_posting_data</t>
+  </si>
+  <si>
     <t>Match selected documents with posting data</t>
+  </si>
+  <si>
+    <t>2_1_-_Capturing_Model_Training,2_2_-_Enrichment_Model_Training</t>
+  </si>
+  <si>
+    <t>Provide_Digitalization_Details_form_to_Local_Finance_Team_and_ask_examples_for_Edge_cases</t>
   </si>
   <si>
     <t>EXAMPLE DOCUMENT
 https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/General/2.%20-%20Workshops/Assessment%20Workshop/Digitalization%20details%20for%20Hypatos_Country.xlsx?d=w1f4142a7ac7a4094a18dd8c9455cf25d&amp;csf=1&amp;web=1&amp;e=DJWR4y</t>
+  </si>
+  <si>
+    <t>Provide_Assessment_Gathering__and_Training__Data__Folders</t>
   </si>
   <si>
     <t xml:space="preserve">Assessment Folders : https://wilhelmsen.sharepoint.com/:f:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/General/2.%20-%20Workshops/Assessment%20Workshop
@@ -105,374 +155,304 @@
 </t>
   </si>
   <si>
+    <t>(ML)_Demo_Project_Creation_for_Requirements_Gathering_Meeting</t>
+  </si>
+  <si>
+    <t>Take the example from (ML) Project - (OC Entities)(Phase 3) Oman</t>
+  </si>
+  <si>
+    <t>Requirement_Gathering_Meeting</t>
+  </si>
+  <si>
+    <t>Request_examples_for_Edge_cases</t>
+  </si>
+  <si>
+    <t>Complete_full_set-up_of_training_data_for_all_of_the_top_suppliers_with_Edge_cases_shared_during_requirements_session</t>
+  </si>
+  <si>
+    <t>Update_WHL_Requirement_List</t>
+  </si>
+  <si>
     <t>https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Solution%20Design/Datapoint_Requirements/20230803%20WHL%20Requirement%20List.xlsx?d=wa1d0a15e28594d848e8def48ff3796e2&amp;csf=1&amp;web=1&amp;e=hxnCwT</t>
   </si>
   <si>
+    <t>Requirement_Gathering_Finalization</t>
+  </si>
+  <si>
+    <t>2_Model_Training</t>
+  </si>
+  <si>
+    <t>2_1_-_Capturing_Model_Training</t>
+  </si>
+  <si>
+    <t>2_3_-_Model_Fine_Tuning</t>
+  </si>
+  <si>
+    <t>Create_baseline_(groundtruth)_project_to_annotate_(ML)</t>
+  </si>
+  <si>
+    <t>Take the example from (ML) Project - NZ_Annotation</t>
+  </si>
+  <si>
+    <t>Upload_documents_selected_for_annotation_to_groundtruth_project_(Top_suppliers_and_Edge_cases)</t>
+  </si>
+  <si>
+    <t>Create_a_task_for_annotation_(add_details_per_requirements)</t>
+  </si>
+  <si>
+    <t>Validate_annotation_results_with_posting_data</t>
+  </si>
+  <si>
+    <t>Improve_annotation_quality_based_on_validation_with_posting_data</t>
+  </si>
+  <si>
+    <t>Create_Training__Project_(ML)</t>
+  </si>
+  <si>
+    <t>Take the example from(ML) Project - (Training)(PROD)(NZ)</t>
+  </si>
+  <si>
+    <t>Upload_selected_training_documents_from_baseline_project_to_Training_Project_(ML)</t>
+  </si>
+  <si>
+    <t>Create__QA_Project_(ML)</t>
+  </si>
+  <si>
+    <t>Take the example from (ML) Project -  (QA) NZ</t>
+  </si>
+  <si>
+    <t>Configure_QA_project_with_Composite_Enrichment_Index</t>
+  </si>
+  <si>
+    <t>Create_LLM_Prompting_Service_(ML)</t>
+  </si>
+  <si>
+    <t>Upload_baseline_(groundtruth)_documents_to_QA_Project_(ML)</t>
+  </si>
+  <si>
+    <t>Create_Error_Analysis_Dashboard</t>
+  </si>
+  <si>
+    <t>Analyze_QA_results_and_accuracy</t>
+  </si>
+  <si>
+    <t>2_2_-_Enrichment_Model_Training</t>
+  </si>
+  <si>
+    <t>Create_IMP_training_project_(TEST)</t>
+  </si>
+  <si>
+    <t>Contact_with_IM_to_enable_IMP_pipeline</t>
+  </si>
+  <si>
+    <t>Upload_documents_to_IMP_training_project</t>
+  </si>
+  <si>
+    <t>Train_suppliers_using_documents_uploaded_to_IMP_project</t>
+  </si>
+  <si>
+    <t>3_1_-_Create_Projects_(TEST)</t>
+  </si>
+  <si>
+    <t>Improve/Optimize__LLM_Prompting_Service_prompt_with_Error_Analysis_results</t>
+  </si>
+  <si>
+    <t>Add_additional_suppliers_to_IMP_project_if_required</t>
+  </si>
+  <si>
+    <t>3_Studio_Configuration</t>
+  </si>
+  <si>
+    <t>3_2_-_Configure_Projects_(TEST)</t>
+  </si>
+  <si>
+    <t>Configure_project_schema_with_agreed_upon_requirements_lists_points</t>
+  </si>
+  <si>
+    <t>Add/Change_accounting_supplier/customer__party</t>
+  </si>
+  <si>
+    <t>Add/Change__company_name_validation</t>
+  </si>
+  <si>
+    <t>Add/check_vat_id_validation</t>
+  </si>
+  <si>
+    <t>Check/change_duplicate_source_data_point</t>
+  </si>
+  <si>
+    <t>(Optional)_Add_translation_data_points_if_required</t>
+  </si>
+  <si>
+    <t>4_1_-_Testing_Set-up</t>
+  </si>
+  <si>
+    <t>Create_a_COE_ticket_to_configure_Rerouting_rules</t>
+  </si>
+  <si>
     <t>Example task : https://hypatos.atlassian.net/browse/WHL-825</t>
   </si>
   <si>
+    <t>Contact_IM_for_composite_enrichment_set-up_configuration</t>
+  </si>
+  <si>
+    <t>Contact_IM_to_create_and_configure_LLM_prompting_service</t>
+  </si>
+  <si>
+    <t>Contact_IM_to_enable_newly_created_(TEST)_outbound_projects_for_duplicate_check_pipeline_(Connect_projects_to_IMP_pipeline)</t>
+  </si>
+  <si>
+    <t>Contact_IM_to_add_outbound_projects_to_XML_UBL_21_endpoint_(TEST)</t>
+  </si>
+  <si>
+    <t>Contact_IM_to_enable_translation_for_outbound_projects</t>
+  </si>
+  <si>
+    <t>4_Testing</t>
+  </si>
+  <si>
+    <t>4_2_-_Functional_Testing_by_HY</t>
+  </si>
+  <si>
+    <t>Copy_and_update_Test_Workbook_for_new_phase_if_needed</t>
+  </si>
+  <si>
     <t>Example Workbook: https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Testing/20240219_WILH_TestWorkbook.xlsx?d=w69cb18348f0b4ca7b8673d2b6069bc2d&amp;csf=1&amp;web=1&amp;e=XKhJvy</t>
   </si>
   <si>
+    <t>4_3_-_Testing_by_Wilhelmsen</t>
+  </si>
+  <si>
+    <t>Compare_project_set-up_with_requirements_list_for_specific_country</t>
+  </si>
+  <si>
     <t>Requirements Sheet: https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Solution%20Design/Datapoint_Requirements/20230803%20WHL%20Requirement%20List.xlsx?d=wa1d0a15e28594d848e8def48ff3796e2&amp;csf=1&amp;web=1&amp;e=hxnCwT</t>
   </si>
   <si>
+    <t>Upload_documents_to_Gateway_project_and_test_routing</t>
+  </si>
+  <si>
+    <t>Test_advanced_duplicate_testing</t>
+  </si>
+  <si>
+    <t>Test_if_enrichment_is_working_properly_with_company_code_filter</t>
+  </si>
+  <si>
+    <t>Test_if_XML_endpoint_if_available_for_outbound_projects_(Postman)</t>
+  </si>
+  <si>
+    <t>(Optional)_Test_translation_feature</t>
+  </si>
+  <si>
+    <t>5_1_-_Create_Projects_(PROD)</t>
+  </si>
+  <si>
+    <t>Add_projects_to_Requirements_List</t>
+  </si>
+  <si>
+    <t>Share_Test_Workbook</t>
+  </si>
+  <si>
+    <t>Wilhelmsen_to_configure_integration_&amp;_perform_System_Integration_Testing_(SIT)</t>
+  </si>
+  <si>
+    <t>Wilhelmsen_to_perform_Functional_Testing</t>
+  </si>
+  <si>
+    <t>Wilhelmsen_to_perform_User_Acceptance_Testing_(UAT)</t>
+  </si>
+  <si>
+    <t>Testing_Support_Tasks_(Issue_Resolution)</t>
+  </si>
+  <si>
+    <t>Analysis_&amp;_Finalization_of_Tests</t>
+  </si>
+  <si>
+    <t>5_Deployment_to_Production</t>
+  </si>
+  <si>
+    <t>5_2_-_Configure_Projects_(PROD)</t>
+  </si>
+  <si>
+    <t>Check_accounting_supplier/customer__party</t>
+  </si>
+  <si>
+    <t>Check__company_name_validation</t>
+  </si>
+  <si>
+    <t>Check_Vat_Id_validation</t>
+  </si>
+  <si>
+    <t>Check__duplicate_source_data_point</t>
+  </si>
+  <si>
+    <t>(Optional)_Check__translation_data_points_if_required</t>
+  </si>
+  <si>
+    <t>5_3_-_Smoke_test</t>
+  </si>
+  <si>
+    <t>Contact_IM_to_enable_newly_created_(PROD)_outbound_projects_for_duplicate_check_pipeline_(Connect_projects_to_IMP_pipeline)</t>
+  </si>
+  <si>
+    <t>Contact_IM_to_add_outbound_projects_to_XML_UBL_21_endpoint_(PROD)</t>
+  </si>
+  <si>
+    <t>5_4_-_Cutover_and_Go_Live</t>
+  </si>
+  <si>
+    <t>Compare_project_set-up_with_(TEST)_project</t>
+  </si>
+  <si>
+    <t>6_1_-_Hypercare_Issues</t>
+  </si>
+  <si>
+    <t>Create_and_share_cutover_Plan</t>
+  </si>
+  <si>
     <t>Example File : https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/General/3.%20-%20Go%20Live/20240321%20WILH%20Cut-Over%20Plan.xlsx?d=we02eb91a059b4632ace3cf0acc7f696a&amp;csf=1&amp;web=1&amp;e=RxxUQ7</t>
   </si>
   <si>
+    <t>Inform_customer_for_Production_Readiness_&amp;__initiate_Production_deployment</t>
+  </si>
+  <si>
+    <t>6_Hypercare_Phase</t>
+  </si>
+  <si>
+    <t>6_2_-_Handover_to_Hypatos_Customer_Care</t>
+  </si>
+  <si>
+    <t>Create_and_share_Hypercare_Issue_Log</t>
+  </si>
+  <si>
     <t>Example File: https://wilhelmsen.sharepoint.com/:x:/r/sites/Wilhelmsen-HypatosDigitalization/Shared%20Documents/Hypercare%20after%20v1.0%20release/Hypercare%20Issue%20Log.xlsx?d=wfe2e122f9ba146bdaef47f39241aef7e&amp;csf=1&amp;web=1&amp;e=Q4aEIk</t>
   </si>
   <si>
-    <t>Roll-outWilhelmsen</t>
-  </si>
-  <si>
-    <t>0.ProjectManagement</t>
-  </si>
-  <si>
-    <t>0_1-Update_all_related_dates_in_this_project</t>
-  </si>
-  <si>
-    <t>0_2-Update_roll-out_plan</t>
-  </si>
-  <si>
-    <t>0_3-Internal_meetings</t>
-  </si>
-  <si>
-    <t>1.ProcessDiscovery</t>
-  </si>
-  <si>
-    <t>1_1-Data_Acquisition</t>
-  </si>
-  <si>
-    <t>1_2-Requirement_Gathering</t>
-  </si>
-  <si>
-    <t>Training&amp;PostingDataRequest</t>
-  </si>
-  <si>
-    <t>PostingDataAnalysis</t>
-  </si>
-  <si>
-    <t>TrainingDataAssessment</t>
-  </si>
-  <si>
-    <t>Requestadditionaldocumentsifrequired</t>
-  </si>
-  <si>
-    <t>TrainingData/DocumentSetPreparation</t>
-  </si>
-  <si>
-    <t>Matchtrainingdocumentswithpostingdata</t>
-  </si>
-  <si>
-    <t>2_1-Capturing_Model_Training,2_2-Enrichment_Model_Training</t>
-  </si>
-  <si>
-    <t>ProvideDigitalizationDetailsformtoLocalFinanceTeamandaskexamplesforEdgecases</t>
-  </si>
-  <si>
-    <t>ProvideAssessmentGatheringandTrainingDataFolders</t>
-  </si>
-  <si>
-    <t>RequirementGatheringMeeting</t>
-  </si>
-  <si>
-    <t>RequestexamplesforEdgecases</t>
-  </si>
-  <si>
-    <t>Completefullset-upoftrainingdataforallofthetopsupplierswithEdgecasessharedduringrequirementssession</t>
-  </si>
-  <si>
-    <t>UpdateWHLRequirementList</t>
-  </si>
-  <si>
-    <t>RequirementGatheringFinalization</t>
-  </si>
-  <si>
-    <t>2.ModelTraining</t>
-  </si>
-  <si>
-    <t>2_1-Capturing_Model_Training</t>
-  </si>
-  <si>
-    <t>2_3-Model_Fine_Tuning</t>
-  </si>
-  <si>
-    <t>Uploaddocumentsselectedforannotationtogroundtruthproject(TopsuppliersandEdgecases)</t>
-  </si>
-  <si>
-    <t>Createataskforannotation(adddetailsperrequirements)</t>
-  </si>
-  <si>
-    <t>Validateannotationresultswithpostingdata</t>
-  </si>
-  <si>
-    <t>Improveannotationqualitybasedonvalidationwithpostingdata</t>
-  </si>
-  <si>
-    <t>ConfigureQAprojectwithCompositeEnrichmentIndex</t>
-  </si>
-  <si>
-    <t>CreateErrorAnalysisDashboard</t>
-  </si>
-  <si>
-    <t>AnalyzeQAresultsandaccuracy</t>
-  </si>
-  <si>
-    <t>2_2-Enrichment_Model_Training</t>
-  </si>
-  <si>
-    <t>ContactwithIMtoenableIMPpipeline</t>
-  </si>
-  <si>
-    <t>UploaddocumentstoIMPtrainingproject</t>
-  </si>
-  <si>
-    <t>TrainsuppliersusingdocumentsuploadedtoIMPproject</t>
-  </si>
-  <si>
-    <t>3_1-Create_Projects_[TEST]</t>
-  </si>
-  <si>
-    <t>Improve/OptimizeLLMPromptingServicepromptwithErrorAnalysisresults</t>
-  </si>
-  <si>
-    <t>AddadditionalsupplierstoIMPprojectifrequired</t>
-  </si>
-  <si>
-    <t>3.StudioConfiguration</t>
-  </si>
-  <si>
-    <t>3_2-Configure_Projects_[TEST]</t>
-  </si>
-  <si>
-    <t>Configureprojectschemawithagreeduponrequirementslistspoints</t>
-  </si>
-  <si>
-    <t>Add/Changeaccountingsupplier/customerparty</t>
-  </si>
-  <si>
-    <t>Add/Changecompanynamevalidation</t>
-  </si>
-  <si>
-    <t>Add/checkvatidvalidation</t>
-  </si>
-  <si>
-    <t>Check/changeduplicatesourcedatapoint</t>
-  </si>
-  <si>
-    <t>(Optional)Addtranslationdatapointsifrequired</t>
-  </si>
-  <si>
-    <t>4_1-Testing_Set-up</t>
-  </si>
-  <si>
-    <t>CreateaCOEtickettoconfigureReroutingrules</t>
-  </si>
-  <si>
-    <t>ContactIMforcompositeenrichmentset-upconfiguration</t>
-  </si>
-  <si>
-    <t>ContactIMtocreateandconfigureLLMpromptingservice</t>
-  </si>
-  <si>
-    <t>ContactIMtoenabletranslationforoutboundprojects</t>
-  </si>
-  <si>
-    <t>4.Testing</t>
-  </si>
-  <si>
-    <t>4_2-Functional_Testing_by_HY</t>
-  </si>
-  <si>
-    <t>CopyandupdateTestWorkbookfornewphaseifneeded</t>
-  </si>
-  <si>
-    <t>4_3-Testing_by_Wilhelmsen</t>
-  </si>
-  <si>
-    <t>Compareprojectset-upwithrequirementslistforspecificcountry</t>
-  </si>
-  <si>
-    <t>UploaddocumentstoGatewayprojectandtestrouting</t>
-  </si>
-  <si>
-    <t>Testadvancedduplicatetesting</t>
-  </si>
-  <si>
-    <t>Testifenrichmentisworkingproperlywithcompanycodefilter</t>
-  </si>
-  <si>
-    <t>TestifXMLendpointifavailableforoutboundprojects(Postman)</t>
-  </si>
-  <si>
-    <t>5_1-Create_Projects_[PROD]</t>
-  </si>
-  <si>
-    <t>AddprojectstoRequirementsList</t>
-  </si>
-  <si>
-    <t>ShareTestWorkbook</t>
-  </si>
-  <si>
-    <t>Wilhelmsentoconfigureintegration&amp;performSystemIntegrationTesting(SIT)</t>
-  </si>
-  <si>
-    <t>WilhelmsentoperformFunctionalTesting</t>
-  </si>
-  <si>
-    <t>WilhelmsentoperformUserAcceptanceTesting(UAT)</t>
-  </si>
-  <si>
-    <t>TestingSupportTasks(IssueResolution)</t>
-  </si>
-  <si>
-    <t>Analysis&amp;FinalizationofTests</t>
-  </si>
-  <si>
-    <t>5.DeploymenttoProduction</t>
-  </si>
-  <si>
-    <t>5_2-Configure_Projects_[PROD]</t>
-  </si>
-  <si>
-    <t>Checkaccountingsupplier/customerparty</t>
-  </si>
-  <si>
-    <t>Checkcompanynamevalidation</t>
-  </si>
-  <si>
-    <t>CheckVatIdvalidation</t>
-  </si>
-  <si>
-    <t>Checkduplicatesourcedatapoint</t>
-  </si>
-  <si>
-    <t>(Optional)Checktranslationdatapointsifrequired</t>
-  </si>
-  <si>
-    <t>5_3-Smoke_test</t>
-  </si>
-  <si>
-    <t>5_4-Cutover_and_Go_Live</t>
-  </si>
-  <si>
-    <t>6_1-Hypercare_Issues</t>
-  </si>
-  <si>
-    <t>CreateandsharecutoverPlan</t>
-  </si>
-  <si>
-    <t>InformcustomerforProductionReadiness&amp;initiateProductiondeployment</t>
-  </si>
-  <si>
-    <t>6.HypercarePhase</t>
-  </si>
-  <si>
-    <t>6_2-Handover_to_Hypatos_Customer_Care</t>
-  </si>
-  <si>
-    <t>CreateandshareHypercareIssueLog</t>
-  </si>
-  <si>
-    <t>Hypercareissueresolutions</t>
-  </si>
-  <si>
-    <t>7_1-Update_initial_design_sign-off_if_needed,7_2-Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
-  </si>
-  <si>
-    <t>UpdateCCHandoverPage</t>
-  </si>
-  <si>
-    <t>7.DocumentationUpdate</t>
-  </si>
-  <si>
-    <t>7_1-Update_initial_design_sign-off_if_needed</t>
-  </si>
-  <si>
-    <t>7_2-Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
-  </si>
-  <si>
-    <t>MLDemoProjectCreationforRequirementsGatheringMeeting</t>
-  </si>
-  <si>
-    <t>Take the example from ML Project - OC EntitiesPhase 3 Oman</t>
-  </si>
-  <si>
-    <t>Createbaseline(groundtruth)projecttoannotateML</t>
-  </si>
-  <si>
-    <t>Take the example from ML Project - NZ_Annotation</t>
-  </si>
-  <si>
-    <t>CreateTrainingProjectML</t>
-  </si>
-  <si>
-    <t>Take the example fromML Project - TrainingPRODNZ</t>
-  </si>
-  <si>
-    <t>UploadselectedtrainingdocumentsfrombaselineprojecttoTrainingProjectML</t>
-  </si>
-  <si>
-    <t>CreateQAProjectML</t>
-  </si>
-  <si>
-    <t>Take the example from ML Project -  QA NZ</t>
-  </si>
-  <si>
-    <t>CreateLLMPromptingServiceML</t>
-  </si>
-  <si>
-    <t>Uploadbaseline(groundtruth)documentstoQAProjectML</t>
-  </si>
-  <si>
-    <t>CreateIMPtrainingprojectTEST</t>
-  </si>
-  <si>
-    <t>3_1-Create_Projects_TEST</t>
-  </si>
-  <si>
-    <t>3_2-Configure_Projects_TEST</t>
-  </si>
-  <si>
-    <t>ContactIMtoenablenewlycreatedTESToutboundprojectsforduplicatecheckpipeline(ConnectprojectstoIMPpipeline)</t>
-  </si>
-  <si>
-    <t>ContactIMtoaddoutboundprojectstoXMLUBL2.1endpointTEST</t>
-  </si>
-  <si>
-    <t>OptionalTesttranslationfeature</t>
-  </si>
-  <si>
-    <t>5_1-Create_Projects_PROD</t>
-  </si>
-  <si>
-    <t>5_2-Configure_Projects_PROD</t>
-  </si>
-  <si>
-    <t>ContactIMtoenablenewlycreatedPRODoutboundprojectsforduplicatecheckpipeline(ConnectprojectstoIMPpipeline)</t>
-  </si>
-  <si>
-    <t>ContactIMtoaddoutboundprojectstoXMLUBL2.1endpointPROD</t>
-  </si>
-  <si>
-    <t>Compareprojectset-upwithTESTproject</t>
+    <t>Hypercare_issue_resolutions</t>
+  </si>
+  <si>
+    <t>7_1_-_Update_initial_design_sign-off_if_needed,7_2_-_Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
+  </si>
+  <si>
+    <t>Update_CC_Handover_Page</t>
+  </si>
+  <si>
+    <t>7_Documentation_Update</t>
+  </si>
+  <si>
+    <t>7_1_-_Update_initial_design_sign-off_if_needed</t>
+  </si>
+  <si>
+    <t>7_2_-_Syncronize_Wilhelmsen_Sharepoint_with_Hypatos_Sharepoint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -555,569 +535,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="131">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2198,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B2479B-C25A-5C46-8BD3-603EE30C2BE8}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2238,10 +1687,10 @@
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -2251,13 +1700,13 @@
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2266,13 +1715,13 @@
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2283,18 +1732,18 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
@@ -2302,18 +1751,18 @@
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" s="9">
         <v>10</v>
@@ -2321,13 +1770,13 @@
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2336,19 +1785,19 @@
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="9">
@@ -2357,13 +1806,13 @@
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2372,104 +1821,104 @@
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9">
@@ -2478,60 +1927,60 @@
     </row>
     <row r="16" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2540,13 +1989,13 @@
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2555,13 +2004,13 @@
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2570,30 +2019,30 @@
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="9"/>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2602,13 +2051,13 @@
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2617,18 +2066,20 @@
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9">
         <v>3</v>
@@ -2636,30 +2087,30 @@
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2668,13 +2119,13 @@
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2683,13 +2134,13 @@
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2698,13 +2149,13 @@
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="9"/>
@@ -2713,30 +2164,30 @@
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2745,30 +2196,30 @@
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -2777,13 +2228,13 @@
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2792,13 +2243,13 @@
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2807,13 +2258,13 @@
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -2822,13 +2273,13 @@
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2837,20 +2288,15 @@
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9">
         <v>1</v>
@@ -2858,13 +2304,13 @@
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2873,13 +2319,13 @@
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2888,13 +2334,13 @@
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -2903,13 +2349,13 @@
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8"/>
@@ -2918,19 +2364,19 @@
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9">
@@ -2939,13 +2385,13 @@
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2954,13 +2400,13 @@
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
@@ -2969,13 +2415,13 @@
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2984,19 +2430,19 @@
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9">
@@ -3005,13 +2451,13 @@
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -3020,13 +2466,13 @@
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -3035,13 +2481,13 @@
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -3050,13 +2496,13 @@
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -3065,13 +2511,13 @@
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -3080,13 +2526,13 @@
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -3095,19 +2541,19 @@
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9">
@@ -3116,30 +2562,30 @@
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -3148,13 +2594,13 @@
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -3163,13 +2609,13 @@
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -3178,13 +2624,13 @@
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -3193,13 +2639,13 @@
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -3208,13 +2654,13 @@
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3223,19 +2669,19 @@
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9">
@@ -3244,36 +2690,36 @@
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9">
@@ -3282,30 +2728,30 @@
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -3314,13 +2760,13 @@
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -3329,13 +2775,13 @@
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -3344,13 +2790,13 @@
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -3359,13 +2805,13 @@
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -3374,19 +2820,19 @@
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9">
@@ -3395,13 +2841,13 @@
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -3410,30 +2856,30 @@
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -3442,13 +2888,13 @@
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="5"/>
@@ -3457,13 +2903,13 @@
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -3472,13 +2918,13 @@
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -3487,13 +2933,13 @@
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -3502,13 +2948,13 @@
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -3517,19 +2963,19 @@
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9">
@@ -3538,13 +2984,13 @@
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3553,13 +2999,13 @@
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -3568,13 +3014,13 @@
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -3583,13 +3029,13 @@
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3598,13 +3044,13 @@
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -3613,13 +3059,13 @@
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -3628,19 +3074,19 @@
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9">
@@ -3649,30 +3095,30 @@
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -3681,13 +3127,13 @@
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3696,13 +3142,13 @@
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3711,13 +3157,13 @@
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -3726,13 +3172,13 @@
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -3741,19 +3187,19 @@
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9">
@@ -3762,13 +3208,13 @@
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3777,13 +3223,13 @@
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -3792,13 +3238,13 @@
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -3807,13 +3253,13 @@
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3822,13 +3268,13 @@
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3837,30 +3283,30 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -3868,69 +3314,69 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G107" s="2">
         <v>5</v>
@@ -3938,44 +3384,44 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -3983,35 +3429,35 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -4021,13 +3467,13 @@
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D114" s="9"/>
       <c r="G114" s="2">
@@ -4035,804 +3481,183 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G114" xr:uid="{C0B2479B-C25A-5C46-8BD3-603EE30C2BE8}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="130" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="127" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="73"/>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="74" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="125" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="123" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="121" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="119" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="117" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="duplicateValues" dxfId="115" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="duplicateValues" dxfId="113" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="duplicateValues" dxfId="111" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="duplicateValues" dxfId="109" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="107" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="duplicateValues" dxfId="105" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="103" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="100" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="98" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="95" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="93" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="duplicateValues" dxfId="91" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="duplicateValues" dxfId="89" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="87" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="85" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="83" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="81" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="79" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="74" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="72" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="69" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="67" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="65" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="duplicateValues" dxfId="63" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="duplicateValues" dxfId="61" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="duplicateValues" dxfId="59" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="duplicateValues" dxfId="57" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91 E99">
-    <cfRule type="duplicateValues" dxfId="55" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="13"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE0DB8-683A-5E4D-9A10-1C52794522C7}">
-  <dimension ref="A1:B114"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B114"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-    </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-    </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-    </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-    </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-    </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-    </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-    </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-    </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-    </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-    </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-    </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-    </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="2"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="53" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="51" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="46" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="41" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="33" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="31" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="25" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="15" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="11" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="5" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91 B99">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d57a97e-bf0b-4cec-a587-841817f75a75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d57067be-9d14-4795-a8ab-0027d10e2a03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100541D480877BA4048A9D91342E163CE04" ma:contentTypeVersion="19" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="28d96b37b54d0536772fb70d3e350a96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d57a97e-bf0b-4cec-a587-841817f75a75" xmlns:ns3="d57067be-9d14-4795-a8ab-0027d10e2a03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f1fc382afb7be30a231b340c6285373" ns2:_="" ns3:_="">
     <xsd:import namespace="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
@@ -5087,27 +3912,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62374C78-7643-457E-861B-A603D8D81D7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2d57a97e-bf0b-4cec-a587-841817f75a75">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d57067be-9d14-4795-a8ab-0027d10e2a03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EEA4BE-BEF6-40EB-9E91-95E267084DF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
+    <ds:schemaRef ds:uri="d57067be-9d14-4795-a8ab-0027d10e2a03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702467FC-0767-4CD6-B1F3-E30D48499054}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5124,23 +3948,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62374C78-7643-457E-861B-A603D8D81D7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5EEA4BE-BEF6-40EB-9E91-95E267084DF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d57a97e-bf0b-4cec-a587-841817f75a75"/>
-    <ds:schemaRef ds:uri="d57067be-9d14-4795-a8ab-0027d10e2a03"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>